--- a/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0E1EA9-4EF5-417B-99D0-2C2E6EF61508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AC29B2-22E6-4C8B-BBC1-BD88F87FD3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD3381CD-E6FA-4168-9C55-341EACAB1026}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F531EBF9-7B8E-4133-B96C-EF86833BD6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -122,13 +122,13 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,26%</t>
+    <t>0,23%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -137,13 +137,13 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,27%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>97,85%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -155,7 +155,7 @@
     <t>98,64%</t>
   </si>
   <si>
-    <t>99,74%</t>
+    <t>99,77%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -164,805 +164,805 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>99,45%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740F3A04-CBB9-423D-A567-B84A153F7E0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98233582-0E26-4A55-9C04-1A07577D3AD5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1841,10 +1841,10 @@
         <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,13 +1859,13 @@
         <v>711359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>746</v>
@@ -1874,13 +1874,13 @@
         <v>793501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>1404</v>
@@ -1889,13 +1889,13 @@
         <v>1504861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,7 +1951,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1963,13 +1963,13 @@
         <v>4840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1978,13 +1978,13 @@
         <v>8587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1993,13 +1993,13 @@
         <v>13427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2014,13 @@
         <v>540249</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>587</v>
@@ -2029,13 +2029,13 @@
         <v>576022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1097</v>
@@ -2044,13 +2044,13 @@
         <v>1116271</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,7 +2106,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2118,13 +2118,13 @@
         <v>9364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2133,13 +2133,13 @@
         <v>7958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2148,13 +2148,13 @@
         <v>17322</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2169,13 @@
         <v>700324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>773</v>
@@ -2184,13 +2184,13 @@
         <v>806040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
         <v>1517</v>
@@ -2437,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1781B622-54B9-4AD6-8AF7-CAF889D7DB50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAF0FA-2F4C-4279-85D2-2FE19B567A40}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2561,13 +2561,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2576,13 +2576,13 @@
         <v>1076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2591,13 +2591,13 @@
         <v>1803</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,10 +2612,10 @@
         <v>100027</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2627,10 +2627,10 @@
         <v>92742</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2642,10 +2642,10 @@
         <v>192769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2716,13 +2716,13 @@
         <v>1146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2731,13 +2731,13 @@
         <v>9045</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2746,13 +2746,13 @@
         <v>10190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,10 +2767,10 @@
         <v>504051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2782,13 +2782,13 @@
         <v>531894</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>976</v>
@@ -2797,13 +2797,13 @@
         <v>1035946</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2871,13 @@
         <v>12968</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2886,13 +2886,13 @@
         <v>11633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2901,13 +2901,13 @@
         <v>24601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,28 +2922,28 @@
         <v>854030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>810</v>
       </c>
       <c r="I11" s="7">
-        <v>887190</v>
+        <v>887189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>1598</v>
@@ -2952,13 +2952,13 @@
         <v>1741220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +2985,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>898822</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3026,13 +3026,13 @@
         <v>5147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3041,13 +3041,13 @@
         <v>11559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3056,13 +3056,13 @@
         <v>16706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3077,13 @@
         <v>630886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>604</v>
@@ -3092,13 +3092,13 @@
         <v>666938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>1181</v>
@@ -3107,13 +3107,13 @@
         <v>1297824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,7 +3169,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3181,13 +3181,13 @@
         <v>9018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3196,13 +3196,13 @@
         <v>11854</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3211,13 +3211,13 @@
         <v>20872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3232,13 @@
         <v>796658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>876</v>
@@ -3247,13 +3247,13 @@
         <v>921347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>1641</v>
@@ -3262,13 +3262,13 @@
         <v>1718005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3336,13 @@
         <v>29005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -3351,13 +3351,13 @@
         <v>45167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -3366,13 +3366,13 @@
         <v>74172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3387,13 @@
         <v>2885653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>2872</v>
@@ -3402,13 +3402,13 @@
         <v>3100110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>5581</v>
@@ -3417,13 +3417,13 @@
         <v>5985764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE791C35-7AD7-4564-B373-0B27FA36C900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACC9501-EFDB-4B52-B4A3-9F4852F75974}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3517,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3630,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3654,13 +3654,13 @@
         <v>851</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3693,7 +3693,7 @@
         <v>33</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3705,10 +3705,10 @@
         <v>198925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3785,7 +3785,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3794,13 +3794,13 @@
         <v>5495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3809,13 +3809,13 @@
         <v>8370</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3833,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3845,13 +3845,13 @@
         <v>437866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -3860,13 +3860,13 @@
         <v>861210</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3934,13 @@
         <v>9268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3949,13 +3949,13 @@
         <v>6016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3964,13 +3964,13 @@
         <v>15284</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,10 +3988,10 @@
         <v>91</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>812</v>
@@ -4000,13 +4000,13 @@
         <v>860357</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -4015,13 +4015,13 @@
         <v>1667435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,7 +4077,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4089,13 +4089,13 @@
         <v>10071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4107,10 +4107,10 @@
         <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4122,10 +4122,10 @@
         <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4140,13 @@
         <v>540289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>547</v>
@@ -4158,10 +4158,10 @@
         <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>1040</v>
@@ -4170,13 +4170,13 @@
         <v>1115061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4232,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4244,13 +4244,13 @@
         <v>9389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4259,13 +4259,13 @@
         <v>20953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4274,13 +4274,13 @@
         <v>30341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4295,13 @@
         <v>763246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>794</v>
@@ -4310,13 +4310,13 @@
         <v>855888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>1553</v>
@@ -4325,13 +4325,13 @@
         <v>1619135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4399,13 @@
         <v>31603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4414,13 +4414,13 @@
         <v>38279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -4429,13 +4429,13 @@
         <v>69882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,16 +4447,16 @@
         <v>2502</v>
       </c>
       <c r="D20" s="7">
-        <v>2632731</v>
+        <v>2632730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>2691</v>
@@ -4465,28 +4465,28 @@
         <v>2829036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>5193</v>
       </c>
       <c r="N20" s="7">
-        <v>5461767</v>
+        <v>5461766</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4498,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4528,7 +4528,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4563,7 +4563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27687EB-69D5-4F63-9683-FECD596A2A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3898CB-4ED3-4E1A-AC59-AEEB0099F430}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4580,7 +4580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4693,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4702,13 +4702,13 @@
         <v>282</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4717,13 +4717,13 @@
         <v>282</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4741,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4753,10 +4753,10 @@
         <v>128004</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4768,10 +4768,10 @@
         <v>228478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4842,13 +4842,13 @@
         <v>2362</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4857,13 +4857,13 @@
         <v>5966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4872,13 +4872,13 @@
         <v>8328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4893,13 @@
         <v>523787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>949</v>
@@ -4908,13 +4908,13 @@
         <v>563531</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
         <v>1527</v>
@@ -4923,13 +4923,13 @@
         <v>1087318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,10 +5000,10 @@
         <v>97</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5012,13 +5012,13 @@
         <v>12822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -5027,13 +5027,13 @@
         <v>24289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,10 +5051,10 @@
         <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>1471</v>
@@ -5063,13 +5063,13 @@
         <v>1029278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>2399</v>
@@ -5078,13 +5078,13 @@
         <v>2033407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,7 +5140,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5152,13 +5152,13 @@
         <v>4996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5170,10 +5170,10 @@
         <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5182,13 +5182,13 @@
         <v>14724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5203,13 @@
         <v>703545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>1010</v>
@@ -5221,10 +5221,10 @@
         <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>1660</v>
@@ -5233,13 +5233,13 @@
         <v>1556006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5295,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5307,13 +5307,13 @@
         <v>8469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5325,10 +5325,10 @@
         <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5337,13 +5337,13 @@
         <v>20768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5358,13 @@
         <v>917909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>1492</v>
@@ -5376,10 +5376,10 @@
         <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>2449</v>
@@ -5388,13 +5388,13 @@
         <v>2020386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5462,13 @@
         <v>27293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5480,10 +5480,10 @@
         <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -5492,13 +5492,13 @@
         <v>68390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5513,13 @@
         <v>3249845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>5159</v>
@@ -5531,7 +5531,7 @@
         <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>306</v>
@@ -5543,13 +5543,13 @@
         <v>6925596</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AC29B2-22E6-4C8B-BBC1-BD88F87FD3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1375E566-B42F-4A87-A8D7-B511134E3F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F531EBF9-7B8E-4133-B96C-EF86833BD6D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D95B2D80-40C9-4900-8FA2-AB3BF12FFB56}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="298">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -107,13 +107,13 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -122,844 +122,814 @@
     <t>0,21%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
   </si>
   <si>
     <t>98,52%</t>
@@ -1374,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98233582-0E26-4A55-9C04-1A07577D3AD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D7C92F-8500-437C-BF86-4EC1B2631AB6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1546,7 +1516,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1597,7 +1567,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2121,10 +2091,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2133,10 +2103,10 @@
         <v>7958</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>82</v>
@@ -2175,7 +2145,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>773</v>
@@ -2184,13 +2154,13 @@
         <v>806040</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M17" s="7">
         <v>1517</v>
@@ -2276,10 +2246,10 @@
         <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -2288,13 +2258,13 @@
         <v>30986</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -2303,13 +2273,13 @@
         <v>57923</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2294,13 @@
         <v>2427805</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>2648</v>
@@ -2339,13 +2309,13 @@
         <v>2709951</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>5028</v>
@@ -2354,13 +2324,13 @@
         <v>5137756</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,7 +2386,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAF0FA-2F4C-4279-85D2-2FE19B567A40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B63EB6-3C00-49A6-89E5-4BB329A6ECF9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2454,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2561,13 +2531,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2576,13 +2546,13 @@
         <v>1076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2591,13 +2561,13 @@
         <v>1803</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,10 +2582,10 @@
         <v>100027</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2627,10 +2597,10 @@
         <v>92742</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2642,10 +2612,10 @@
         <v>192769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2716,13 +2686,13 @@
         <v>1146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2731,13 +2701,13 @@
         <v>9045</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2746,13 +2716,13 @@
         <v>10190</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,10 +2737,10 @@
         <v>504051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2782,13 +2752,13 @@
         <v>531894</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>976</v>
@@ -2797,13 +2767,13 @@
         <v>1035946</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,10 +2844,10 @@
         <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2889,10 +2859,10 @@
         <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2901,13 +2871,13 @@
         <v>24601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2892,13 @@
         <v>854030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>810</v>
@@ -2937,13 +2907,13 @@
         <v>887189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
         <v>1598</v>
@@ -2952,13 +2922,13 @@
         <v>1741220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +2996,13 @@
         <v>5147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3041,13 +3011,13 @@
         <v>11559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3056,13 +3026,13 @@
         <v>16706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3047,13 @@
         <v>630886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>604</v>
@@ -3092,13 +3062,13 @@
         <v>666938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>1181</v>
@@ -3107,13 +3077,13 @@
         <v>1297824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3151,13 @@
         <v>9018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3196,13 +3166,13 @@
         <v>11854</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3211,13 +3181,13 @@
         <v>20872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3202,13 @@
         <v>796658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>876</v>
@@ -3247,13 +3217,13 @@
         <v>921347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>1641</v>
@@ -3262,13 +3232,13 @@
         <v>1718005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,10 +3339,10 @@
         <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3357,13 @@
         <v>2885653</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>2872</v>
@@ -3402,13 +3372,13 @@
         <v>3100110</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>5581</v>
@@ -3417,13 +3387,13 @@
         <v>5985764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,7 +3449,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACC9501-EFDB-4B52-B4A3-9F4852F75974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45EA3FE-10C0-4ADF-BC6E-4A6C09B81654}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3517,7 +3487,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3630,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3645,7 +3615,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3654,13 +3624,13 @@
         <v>851</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3648,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3693,7 +3663,7 @@
         <v>33</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3705,10 +3675,10 @@
         <v>198925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3785,7 +3755,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3794,13 +3764,13 @@
         <v>5495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3809,13 +3779,13 @@
         <v>8370</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3803,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3845,13 +3815,13 @@
         <v>437866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -3860,13 +3830,13 @@
         <v>861210</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,10 +3907,10 @@
         <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3949,13 +3919,13 @@
         <v>6016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3964,13 +3934,13 @@
         <v>15284</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,10 +3958,10 @@
         <v>91</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>812</v>
@@ -4000,13 +3970,13 @@
         <v>860357</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -4015,13 +3985,13 @@
         <v>1667435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4059,13 @@
         <v>10071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4104,13 +4074,13 @@
         <v>4965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4122,10 +4092,10 @@
         <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4110,13 @@
         <v>540289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>547</v>
@@ -4155,13 +4125,13 @@
         <v>574773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>1040</v>
@@ -4173,10 +4143,10 @@
         <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,10 +4217,10 @@
         <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4259,13 +4229,13 @@
         <v>20953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4274,13 +4244,13 @@
         <v>30341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4265,13 @@
         <v>763246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>794</v>
@@ -4310,13 +4280,13 @@
         <v>855888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>1553</v>
@@ -4325,13 +4295,13 @@
         <v>1619135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,10 +4372,10 @@
         <v>65</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4414,13 +4384,13 @@
         <v>38279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -4429,13 +4399,13 @@
         <v>69882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,16 +4417,16 @@
         <v>2502</v>
       </c>
       <c r="D20" s="7">
-        <v>2632730</v>
+        <v>2632731</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7">
         <v>2691</v>
@@ -4465,13 +4435,13 @@
         <v>2829036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>5193</v>
@@ -4480,13 +4450,13 @@
         <v>5461766</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4468,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4542,7 +4512,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4563,7 +4533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3898CB-4ED3-4E1A-AC59-AEEB0099F430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AB5B8C-C7BA-47C6-AB86-3F6E3F9C5688}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4580,7 +4550,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4693,7 +4663,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4702,13 +4672,13 @@
         <v>282</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4717,13 +4687,13 @@
         <v>282</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4711,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4753,10 +4723,10 @@
         <v>128004</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4768,10 +4738,10 @@
         <v>228478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4842,10 +4812,10 @@
         <v>2362</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>43</v>
@@ -4857,13 +4827,13 @@
         <v>5966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4872,13 +4842,13 @@
         <v>8328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4863,13 @@
         <v>523787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>949</v>
@@ -4908,10 +4878,10 @@
         <v>563531</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>31</v>
@@ -4923,13 +4893,13 @@
         <v>1087318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4967,13 @@
         <v>11466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5012,13 +4982,13 @@
         <v>12822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -5027,13 +4997,13 @@
         <v>24289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5018,13 @@
         <v>1004130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>1471</v>
@@ -5063,13 +5033,13 @@
         <v>1029278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>2399</v>
@@ -5078,13 +5048,13 @@
         <v>2033407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5122,13 @@
         <v>4996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5167,13 +5137,13 @@
         <v>9728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5182,13 +5152,13 @@
         <v>14724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5173,13 @@
         <v>703545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>1010</v>
@@ -5218,13 +5188,13 @@
         <v>852460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>1660</v>
@@ -5233,13 +5203,13 @@
         <v>1556006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5277,13 @@
         <v>8469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5325,10 +5295,10 @@
         <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5337,13 +5307,13 @@
         <v>20768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5328,13 @@
         <v>917909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>1492</v>
@@ -5373,13 +5343,13 @@
         <v>1102477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>2449</v>
@@ -5388,13 +5358,13 @@
         <v>2020386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5432,13 @@
         <v>27293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5477,13 +5447,13 @@
         <v>41096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -5492,13 +5462,13 @@
         <v>68390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5483,13 @@
         <v>3249845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>5159</v>
@@ -5528,13 +5498,13 @@
         <v>3675752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>8387</v>
@@ -5543,13 +5513,13 @@
         <v>6925596</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5575,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1375E566-B42F-4A87-A8D7-B511134E3F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4D2837-205A-4E1F-8ED4-D7C295E8907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D95B2D80-40C9-4900-8FA2-AB3BF12FFB56}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57923E76-9041-4F21-8191-9140EA3A5E51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="308">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -113,7 +113,7 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -122,817 +122,847 @@
     <t>0,21%</t>
   </si>
   <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D7C92F-8500-437C-BF86-4EC1B2631AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740C9120-259D-435E-B00C-DAECC691205C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,7 +1546,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1567,7 +1597,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1811,10 +1841,10 @@
         <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1859,13 @@
         <v>711359</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>746</v>
@@ -1844,13 +1874,13 @@
         <v>793501</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>1404</v>
@@ -1859,13 +1889,13 @@
         <v>1504861</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,7 +1951,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1933,13 +1963,13 @@
         <v>4840</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1948,13 +1978,13 @@
         <v>8587</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1963,13 +1993,13 @@
         <v>13427</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +2014,13 @@
         <v>540249</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>587</v>
@@ -1999,13 +2029,13 @@
         <v>576022</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1097</v>
@@ -2014,13 +2044,13 @@
         <v>1116271</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,7 +2106,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2088,13 +2118,13 @@
         <v>9364</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2103,13 +2133,13 @@
         <v>7958</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2118,13 +2148,13 @@
         <v>17322</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2169,13 @@
         <v>700324</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>773</v>
@@ -2246,10 +2276,10 @@
         <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -2258,13 +2288,13 @@
         <v>30986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -2273,13 +2303,13 @@
         <v>57923</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2324,13 @@
         <v>2427805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>2648</v>
@@ -2309,13 +2339,13 @@
         <v>2709951</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>5028</v>
@@ -2324,13 +2354,13 @@
         <v>5137756</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,7 +2416,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2407,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B63EB6-3C00-49A6-89E5-4BB329A6ECF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FA908-1AD5-47B0-88DE-2B4BA2725267}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2424,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2531,13 +2561,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2546,13 +2576,13 @@
         <v>1076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2561,13 +2591,13 @@
         <v>1803</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,7 +2612,7 @@
         <v>100027</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>119</v>
@@ -2692,7 +2722,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2704,10 +2734,10 @@
         <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2716,13 +2746,13 @@
         <v>10190</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,10 +2767,10 @@
         <v>504051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2752,13 +2782,13 @@
         <v>531894</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>976</v>
@@ -2767,13 +2797,13 @@
         <v>1035946</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2871,13 @@
         <v>12968</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2856,13 +2886,13 @@
         <v>11633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2871,13 +2901,13 @@
         <v>24601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,28 +2922,28 @@
         <v>854030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>810</v>
       </c>
       <c r="I11" s="7">
-        <v>887189</v>
+        <v>887190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>1598</v>
@@ -2922,13 +2952,13 @@
         <v>1741220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2985,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898822</v>
+        <v>898823</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2984,7 +3014,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2996,13 +3026,13 @@
         <v>5147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3011,13 +3041,13 @@
         <v>11559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3026,13 +3056,13 @@
         <v>16706</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3077,13 @@
         <v>630886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>604</v>
@@ -3062,13 +3092,13 @@
         <v>666938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>1181</v>
@@ -3077,13 +3107,13 @@
         <v>1297824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3169,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3151,13 +3181,13 @@
         <v>9018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3166,13 +3196,13 @@
         <v>11854</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3181,13 +3211,13 @@
         <v>20872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3232,13 @@
         <v>796658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>876</v>
@@ -3217,13 +3247,13 @@
         <v>921347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>1641</v>
@@ -3232,13 +3262,13 @@
         <v>1718005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3336,13 @@
         <v>29005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -3321,13 +3351,13 @@
         <v>45167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -3336,13 +3366,13 @@
         <v>74172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3387,13 @@
         <v>2885653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>2872</v>
@@ -3372,13 +3402,13 @@
         <v>3100110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>5581</v>
@@ -3387,13 +3417,13 @@
         <v>5985764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3479,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +3500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45EA3FE-10C0-4ADF-BC6E-4A6C09B81654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8BA835-2881-4284-969D-FF1A48BA6BC7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3487,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3600,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3615,7 +3645,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3624,13 +3654,13 @@
         <v>851</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3663,7 +3693,7 @@
         <v>33</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3675,10 +3705,10 @@
         <v>198925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3755,7 +3785,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3764,13 +3794,13 @@
         <v>5495</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3779,13 +3809,13 @@
         <v>8370</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,10 +3863,10 @@
         <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3934,13 @@
         <v>9268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3919,13 +3949,13 @@
         <v>6016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3934,13 +3964,13 @@
         <v>15284</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,10 +3988,10 @@
         <v>91</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>812</v>
@@ -3970,10 +4000,10 @@
         <v>860357</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>220</v>
@@ -3988,7 +4018,7 @@
         <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>222</v>
@@ -4047,7 +4077,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4059,13 +4089,13 @@
         <v>10071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4074,13 +4104,13 @@
         <v>4965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4092,10 +4122,10 @@
         <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4140,13 @@
         <v>540289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>547</v>
@@ -4125,13 +4155,13 @@
         <v>574773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>1040</v>
@@ -4140,13 +4170,13 @@
         <v>1115061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,7 +4232,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4214,13 +4244,13 @@
         <v>9389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4229,13 +4259,13 @@
         <v>20953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4244,13 +4274,13 @@
         <v>30341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4295,13 @@
         <v>763246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>794</v>
@@ -4280,13 +4310,13 @@
         <v>855888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>1553</v>
@@ -4295,13 +4325,13 @@
         <v>1619135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4399,13 @@
         <v>31603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4384,13 +4414,13 @@
         <v>38279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -4399,13 +4429,13 @@
         <v>69882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4450,13 @@
         <v>2632731</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>2691</v>
@@ -4435,28 +4465,28 @@
         <v>2829036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>5193</v>
       </c>
       <c r="N20" s="7">
-        <v>5461766</v>
+        <v>5461767</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4528,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4512,7 +4542,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4533,7 +4563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AB5B8C-C7BA-47C6-AB86-3F6E3F9C5688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7651DF32-2832-46DB-8189-D1E964780641}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4550,7 +4580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4663,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4672,13 +4702,13 @@
         <v>282</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4687,13 +4717,13 @@
         <v>282</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,7 +4741,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4723,10 +4753,10 @@
         <v>128004</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4738,10 +4768,10 @@
         <v>228478</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4812,13 +4842,13 @@
         <v>2362</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4827,13 +4857,13 @@
         <v>5966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4842,13 +4872,13 @@
         <v>8328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4893,13 @@
         <v>523787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>949</v>
@@ -4878,13 +4908,13 @@
         <v>563531</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="M8" s="7">
         <v>1527</v>
@@ -4893,13 +4923,13 @@
         <v>1087318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4997,13 @@
         <v>11466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4982,13 +5012,13 @@
         <v>12822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4997,13 +5027,13 @@
         <v>24289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5048,13 @@
         <v>1004130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>1471</v>
@@ -5033,13 +5063,13 @@
         <v>1029278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>2399</v>
@@ -5048,13 +5078,13 @@
         <v>2033407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,7 +5140,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5122,13 +5152,13 @@
         <v>4996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5137,13 +5167,13 @@
         <v>9728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5152,13 +5182,13 @@
         <v>14724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5203,13 @@
         <v>703545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="H14" s="7">
         <v>1010</v>
@@ -5188,13 +5218,13 @@
         <v>852460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>1660</v>
@@ -5203,13 +5233,13 @@
         <v>1556006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5295,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5277,13 +5307,13 @@
         <v>8469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5298,7 +5328,7 @@
         <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5307,13 +5337,13 @@
         <v>20768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,10 +5361,10 @@
         <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>1492</v>
@@ -5343,13 +5373,13 @@
         <v>1102477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>2449</v>
@@ -5358,13 +5388,13 @@
         <v>2020386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5462,13 @@
         <v>27293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5447,13 +5477,13 @@
         <v>41096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -5462,13 +5492,13 @@
         <v>68390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5513,13 @@
         <v>3249845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>5159</v>
@@ -5498,13 +5528,13 @@
         <v>3675752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>69</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>8387</v>
@@ -5516,10 +5546,10 @@
         <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,7 +5605,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4D2837-205A-4E1F-8ED4-D7C295E8907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AD92A3-0C39-49FB-A1F3-57CF368B7602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57923E76-9041-4F21-8191-9140EA3A5E51}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{006493D1-2BEE-4854-BFDA-1EC2838D4EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="260">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,901 +68,757 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>98,94%</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740C9120-259D-435E-B00C-DAECC691205C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44554160-E310-4DDA-9A1A-4AEDB1E28031}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1492,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1507,85 +1363,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3717</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>468</v>
       </c>
       <c r="D5" s="7">
-        <v>77765</v>
+        <v>475874</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>542</v>
       </c>
       <c r="I5" s="7">
-        <v>94748</v>
+        <v>534387</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>177</v>
+        <v>1010</v>
       </c>
       <c r="N5" s="7">
-        <v>172514</v>
+        <v>1010261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,153 +1450,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>1963</v>
+        <v>10769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>3717</v>
+        <v>10725</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>5680</v>
+        <v>21493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>398</v>
+        <v>658</v>
       </c>
       <c r="D8" s="7">
-        <v>398109</v>
+        <v>711359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>435</v>
+        <v>746</v>
       </c>
       <c r="I8" s="7">
-        <v>439638</v>
+        <v>793501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>833</v>
+        <v>1404</v>
       </c>
       <c r="N8" s="7">
-        <v>837747</v>
+        <v>1504861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,153 +1605,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>10769</v>
+        <v>4840</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>10725</v>
+        <v>8587</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>21493</v>
+        <v>13427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>658</v>
+        <v>510</v>
       </c>
       <c r="D11" s="7">
-        <v>711359</v>
+        <v>540249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>746</v>
+        <v>587</v>
       </c>
       <c r="I11" s="7">
-        <v>793501</v>
+        <v>576022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1404</v>
+        <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1504861</v>
+        <v>1116271</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,153 +1760,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>545089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1111</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1129698</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>4840</v>
+        <v>9364</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>8587</v>
+        <v>7958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>13427</v>
+        <v>17322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>510</v>
+        <v>744</v>
       </c>
       <c r="D14" s="7">
-        <v>540249</v>
+        <v>700324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>587</v>
+        <v>773</v>
       </c>
       <c r="I14" s="7">
-        <v>576022</v>
+        <v>806040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1097</v>
+        <v>1517</v>
       </c>
       <c r="N14" s="7">
-        <v>1116271</v>
+        <v>1506364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,153 +1915,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>515</v>
+        <v>754</v>
       </c>
       <c r="D15" s="7">
-        <v>545089</v>
+        <v>709688</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>781</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>813998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1111</v>
+        <v>1535</v>
       </c>
       <c r="N15" s="7">
-        <v>1129698</v>
+        <v>1523686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>9364</v>
+        <v>26937</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>7958</v>
+        <v>30986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>17322</v>
+        <v>57923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>744</v>
+        <v>2380</v>
       </c>
       <c r="D17" s="7">
-        <v>700324</v>
+        <v>2427805</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>773</v>
+        <v>2648</v>
       </c>
       <c r="I17" s="7">
-        <v>806040</v>
+        <v>2709951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>1517</v>
+        <v>5028</v>
       </c>
       <c r="N17" s="7">
-        <v>1506364</v>
+        <v>5137756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,217 +2070,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>754</v>
+        <v>2407</v>
       </c>
       <c r="D18" s="7">
-        <v>709688</v>
+        <v>2454742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>781</v>
+        <v>2679</v>
       </c>
       <c r="I18" s="7">
-        <v>813998</v>
+        <v>2740937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1535</v>
+        <v>5086</v>
       </c>
       <c r="N18" s="7">
-        <v>1523686</v>
+        <v>5195679</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <v>26937</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7">
-        <v>30986</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>58</v>
-      </c>
-      <c r="N19" s="7">
-        <v>57923</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2380</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2427805</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2648</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2709951</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5028</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5137756</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2407</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2454742</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2679</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740937</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5086</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5195679</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2437,8 +2137,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FA908-1AD5-47B0-88DE-2B4BA2725267}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE164DA-6F3D-4E5C-97F1-1566412F0518}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2454,7 +2154,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2555,100 +2255,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>727</v>
+        <v>1873</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10121</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1076</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
       <c r="N4" s="7">
-        <v>1803</v>
+        <v>11993</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>579</v>
       </c>
       <c r="D5" s="7">
-        <v>100027</v>
+        <v>604078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>582</v>
+      </c>
+      <c r="I5" s="7">
+        <v>624636</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1161</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1228715</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>81</v>
-      </c>
-      <c r="I5" s="7">
-        <v>92742</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>185</v>
-      </c>
-      <c r="N5" s="7">
-        <v>192769</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,153 +2357,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>605951</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>634757</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1172</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1240708</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>1146</v>
+        <v>12968</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11633</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="7">
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>24601</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9045</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
-      <c r="N7" s="7">
-        <v>10190</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>475</v>
+        <v>788</v>
       </c>
       <c r="D8" s="7">
-        <v>504051</v>
+        <v>854030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>501</v>
+        <v>810</v>
       </c>
       <c r="I8" s="7">
-        <v>531894</v>
+        <v>887190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>976</v>
+        <v>1598</v>
       </c>
       <c r="N8" s="7">
-        <v>1035946</v>
+        <v>1741220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,153 +2512,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7">
-        <v>505197</v>
+        <v>866998</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>509</v>
+        <v>821</v>
       </c>
       <c r="I9" s="7">
-        <v>540939</v>
+        <v>898823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>985</v>
+        <v>1620</v>
       </c>
       <c r="N9" s="7">
-        <v>1046136</v>
+        <v>1765821</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>12968</v>
+        <v>5147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>11633</v>
+        <v>11559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>24601</v>
+        <v>16705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>788</v>
+        <v>577</v>
       </c>
       <c r="D11" s="7">
-        <v>854030</v>
+        <v>630886</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="7">
+        <v>604</v>
+      </c>
+      <c r="I11" s="7">
+        <v>666938</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1181</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1297824</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="7">
-        <v>810</v>
-      </c>
-      <c r="I11" s="7">
-        <v>887190</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1598</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1741220</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,153 +2667,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>799</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
-        <v>866998</v>
+        <v>636033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>821</v>
+        <v>615</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>678497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1620</v>
+        <v>1197</v>
       </c>
       <c r="N12" s="7">
-        <v>1765821</v>
+        <v>1314529</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>5147</v>
+        <v>9018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>11559</v>
+        <v>11854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>16706</v>
+        <v>20872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>577</v>
+        <v>765</v>
       </c>
       <c r="D14" s="7">
-        <v>630886</v>
+        <v>796658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
-        <v>604</v>
+        <v>876</v>
       </c>
       <c r="I14" s="7">
-        <v>666938</v>
+        <v>921347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
-        <v>1181</v>
+        <v>1641</v>
       </c>
       <c r="N14" s="7">
-        <v>1297824</v>
+        <v>1718005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,153 +2822,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="D15" s="7">
-        <v>636033</v>
+        <v>805676</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>615</v>
+        <v>887</v>
       </c>
       <c r="I15" s="7">
-        <v>678497</v>
+        <v>933201</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1197</v>
+        <v>1661</v>
       </c>
       <c r="N15" s="7">
-        <v>1314530</v>
+        <v>1738877</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>9018</v>
+        <v>29005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>11854</v>
+        <v>45167</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="N16" s="7">
-        <v>20872</v>
+        <v>74172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>765</v>
+        <v>2709</v>
       </c>
       <c r="D17" s="7">
-        <v>796658</v>
+        <v>2885654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
-        <v>876</v>
+        <v>2872</v>
       </c>
       <c r="I17" s="7">
-        <v>921347</v>
+        <v>3100110</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
-        <v>1641</v>
+        <v>5581</v>
       </c>
       <c r="N17" s="7">
-        <v>1718005</v>
+        <v>5985764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,217 +2977,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>774</v>
+        <v>2736</v>
       </c>
       <c r="D18" s="7">
-        <v>805676</v>
+        <v>2914659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>887</v>
+        <v>2914</v>
       </c>
       <c r="I18" s="7">
-        <v>933201</v>
+        <v>3145277</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1661</v>
+        <v>5650</v>
       </c>
       <c r="N18" s="7">
-        <v>1738877</v>
+        <v>6059936</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <v>29005</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>45167</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M19" s="7">
-        <v>69</v>
-      </c>
-      <c r="N19" s="7">
-        <v>74172</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2709</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2885653</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2872</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3100110</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5581</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5985764</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2736</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2914</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3145277</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5650</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6059936</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3500,8 +3044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8BA835-2881-4284-969D-FF1A48BA6BC7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17BFE67-037F-4E93-83D4-1273ED7DC3AF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3517,7 +3061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3618,100 +3162,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2875</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>851</v>
+        <v>6345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>851</v>
+        <v>9220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>505</v>
       </c>
       <c r="D5" s="7">
-        <v>98775</v>
+        <v>522118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
+        <v>538</v>
+      </c>
+      <c r="I5" s="7">
+        <v>538018</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1043</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1060136</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="7">
-        <v>100150</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>196</v>
-      </c>
-      <c r="N5" s="7">
-        <v>198925</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,153 +3264,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>2875</v>
+        <v>9268</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>5495</v>
+        <v>6016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>8370</v>
+        <v>15284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>410</v>
+        <v>745</v>
       </c>
       <c r="D8" s="7">
-        <v>423343</v>
+        <v>807078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
-        <v>437</v>
+        <v>812</v>
       </c>
       <c r="I8" s="7">
-        <v>437866</v>
+        <v>860357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
-        <v>847</v>
+        <v>1557</v>
       </c>
       <c r="N8" s="7">
-        <v>861210</v>
+        <v>1667435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,153 +3419,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>9268</v>
+        <v>10071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>6016</v>
+        <v>4965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>15284</v>
+        <v>15037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>745</v>
+        <v>493</v>
       </c>
       <c r="D11" s="7">
-        <v>807078</v>
+        <v>540289</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
-        <v>812</v>
+        <v>547</v>
       </c>
       <c r="I11" s="7">
-        <v>860357</v>
+        <v>574773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>1557</v>
+        <v>1040</v>
       </c>
       <c r="N11" s="7">
-        <v>1667435</v>
+        <v>1115061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,153 +3574,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>10071</v>
+        <v>9389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>4965</v>
+        <v>20953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>15037</v>
+        <v>30341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>493</v>
+        <v>759</v>
       </c>
       <c r="D14" s="7">
-        <v>540289</v>
+        <v>763246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>547</v>
+        <v>794</v>
       </c>
       <c r="I14" s="7">
-        <v>574773</v>
+        <v>855888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
-        <v>1040</v>
+        <v>1553</v>
       </c>
       <c r="N14" s="7">
-        <v>1115061</v>
+        <v>1619135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,153 +3729,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>9389</v>
+        <v>31603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>20953</v>
+        <v>38279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N16" s="7">
-        <v>30341</v>
+        <v>69882</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>759</v>
+        <v>2502</v>
       </c>
       <c r="D17" s="7">
-        <v>763246</v>
+        <v>2632730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
-        <v>794</v>
+        <v>2691</v>
       </c>
       <c r="I17" s="7">
-        <v>855888</v>
+        <v>2829036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
-        <v>1553</v>
+        <v>5193</v>
       </c>
       <c r="N17" s="7">
-        <v>1619135</v>
+        <v>5461766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,217 +3884,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>31603</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="7">
-        <v>36</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38279</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M19" s="7">
-        <v>64</v>
-      </c>
-      <c r="N19" s="7">
-        <v>69882</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2502</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2632731</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2691</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2829036</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5193</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5461767</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4563,8 +3951,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7651DF32-2832-46DB-8189-D1E964780641}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB62B57-7F68-4DCA-9941-8C95DD76A559}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4580,7 +3968,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4681,100 +4069,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2342</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
       <c r="I4" s="7">
-        <v>282</v>
+        <v>5889</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>282</v>
+        <v>8230</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>115</v>
+        <v>693</v>
       </c>
       <c r="D5" s="7">
-        <v>100474</v>
+        <v>608962</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
-        <v>237</v>
+        <v>1186</v>
       </c>
       <c r="I5" s="7">
-        <v>128004</v>
+        <v>645643</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
-        <v>352</v>
+        <v>1879</v>
       </c>
       <c r="N5" s="7">
-        <v>228478</v>
+        <v>1254606</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,153 +4171,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>2362</v>
+        <v>12692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>5966</v>
+        <v>11489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>8328</v>
+        <v>24181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>928</v>
       </c>
       <c r="D8" s="7">
-        <v>523787</v>
+        <v>1154024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>949</v>
+        <v>1471</v>
       </c>
       <c r="I8" s="7">
-        <v>563531</v>
+        <v>930836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
-        <v>1527</v>
+        <v>2399</v>
       </c>
       <c r="N8" s="7">
-        <v>1087318</v>
+        <v>2084859</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,153 +4326,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>11466</v>
+        <v>4689</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>12822</v>
+        <v>8939</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>24289</v>
+        <v>13628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>928</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>1004130</v>
+        <v>681578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
-        <v>1471</v>
+        <v>1010</v>
       </c>
       <c r="I11" s="7">
-        <v>1029278</v>
+        <v>913114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
-        <v>2399</v>
+        <v>1660</v>
       </c>
       <c r="N11" s="7">
-        <v>2033407</v>
+        <v>1594692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,153 +4481,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>4996</v>
+        <v>8104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>9728</v>
+        <v>11457</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>14724</v>
+        <v>19560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>650</v>
+        <v>957</v>
       </c>
       <c r="D14" s="7">
-        <v>703545</v>
+        <v>881831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>1010</v>
+        <v>1492</v>
       </c>
       <c r="I14" s="7">
-        <v>852460</v>
+        <v>1051460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>1660</v>
+        <v>2449</v>
       </c>
       <c r="N14" s="7">
-        <v>1556006</v>
+        <v>1933291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,153 +4636,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>8469</v>
+        <v>27826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>12299</v>
+        <v>37773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="N16" s="7">
-        <v>20768</v>
+        <v>65599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>957</v>
+        <v>3228</v>
       </c>
       <c r="D17" s="7">
-        <v>917909</v>
+        <v>3326395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
-        <v>1492</v>
+        <v>5159</v>
       </c>
       <c r="I17" s="7">
-        <v>1102477</v>
+        <v>3541054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
-        <v>2449</v>
+        <v>8387</v>
       </c>
       <c r="N17" s="7">
-        <v>2020386</v>
+        <v>6867449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,217 +4791,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3253</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3354221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8470</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6933048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>25</v>
-      </c>
-      <c r="D19" s="7">
-        <v>27293</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="7">
-        <v>58</v>
-      </c>
-      <c r="I19" s="7">
-        <v>41096</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="7">
-        <v>83</v>
-      </c>
-      <c r="N19" s="7">
-        <v>68390</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3228</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3249845</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5159</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3675752</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8387</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6925596</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8470</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
